--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1834.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1834.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.348818100431274</v>
+        <v>0.3628304004669189</v>
       </c>
       <c r="B1">
-        <v>1.515479222258981</v>
+        <v>2.827953100204468</v>
       </c>
       <c r="C1">
-        <v>1.55495353505272</v>
+        <v>4.700586795806885</v>
       </c>
       <c r="D1">
-        <v>1.817332002385692</v>
+        <v>1.736625194549561</v>
       </c>
       <c r="E1">
-        <v>2.267126450169588</v>
+        <v>0.8260374665260315</v>
       </c>
     </row>
   </sheetData>
